--- a/スポーツマスターズ参加申込書.xlsx
+++ b/スポーツマスターズ参加申込書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb4d241667b872f9/デスクトップ/スポーツマスターズ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb4d241667b872f9/MyPrograms/競泳エントリーシステム/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{65CBF38F-15E5-486F-AC3F-222CEF2A56BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B979B9E9-4363-4318-A3B4-58A0B076D7E7}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{65CBF38F-15E5-486F-AC3F-222CEF2A56BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E270A216-F05B-4379-B20C-2F1FBCAECBA4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1425" windowWidth="19935" windowHeight="12255" activeTab="1" xr2:uid="{1DA7689B-2508-4AB9-929E-7F09F3B6F5D7}"/>
+    <workbookView xWindow="195" yWindow="413" windowWidth="19688" windowHeight="11895" activeTab="6" xr2:uid="{1DA7689B-2508-4AB9-929E-7F09F3B6F5D7}"/>
   </bookViews>
   <sheets>
     <sheet name="記入にあたって" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="リレー種目" sheetId="6" r:id="rId4"/>
     <sheet name="リレー種目記入例" sheetId="8" r:id="rId5"/>
     <sheet name="クラス" sheetId="2" state="hidden" r:id="rId6"/>
-    <sheet name="種目" sheetId="3" state="hidden" r:id="rId7"/>
+    <sheet name="種目" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="classTable">クラス!$B$3:$C$23</definedName>
@@ -1795,10 +1795,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2416,7 +2412,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AN1088"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="95" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="95" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
@@ -46024,7 +46020,7 @@
   <dimension ref="A1:I1088"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.7"/>
@@ -50672,7 +50668,7 @@
       <c r="I1088" s="47"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" deleteRows="0"/>
+  <sheetProtection formatColumns="0" deleteRows="0"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="6">
     <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 I101:I1048576 I1" xr:uid="{BFF472FF-6271-4ABB-A001-978AB8B10F5B}"/>
@@ -55271,7 +55267,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/スポーツマスターズ参加申込書.xlsx
+++ b/スポーツマスターズ参加申込書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb4d241667b872f9/MyPrograms/競泳エントリーシステム/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{65CBF38F-15E5-486F-AC3F-222CEF2A56BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E270A216-F05B-4379-B20C-2F1FBCAECBA4}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="14_{4340F376-1714-4EAF-B693-FA0399BF40C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2303066E-E888-4428-B41A-6460636B1C13}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="413" windowWidth="19688" windowHeight="11895" activeTab="6" xr2:uid="{1DA7689B-2508-4AB9-929E-7F09F3B6F5D7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="3" xr2:uid="{1DA7689B-2508-4AB9-929E-7F09F3B6F5D7}"/>
   </bookViews>
   <sheets>
     <sheet name="記入にあたって" sheetId="4" r:id="rId1"/>
@@ -19,12 +19,13 @@
     <sheet name="リレー種目" sheetId="6" r:id="rId4"/>
     <sheet name="リレー種目記入例" sheetId="8" r:id="rId5"/>
     <sheet name="クラス" sheetId="2" state="hidden" r:id="rId6"/>
-    <sheet name="種目" sheetId="3" r:id="rId7"/>
+    <sheet name="種目" sheetId="3" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="classTable">クラス!$B$3:$C$23</definedName>
     <definedName name="entryTime">個人種目!$Q$53</definedName>
     <definedName name="excelSWMSYSEntrySheet">クラス!$B$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">リレー種目!$A$1:$I$463</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">記入にあたって!$A$1:$M$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">個人種目!$A$1:$N$300</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">リレー種目!$1:$1</definedName>
@@ -2095,9 +2096,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -2395,6 +2396,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
@@ -2412,19 +2414,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AN1088"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="95" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="31.05" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.8125" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.4375" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="5.0625" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="4" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="4" hidden="1" customWidth="1"/>
@@ -24117,9 +24119,9 @@
       <c r="P1088" s="41"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0"/>
+  <sheetProtection sheet="1" formatColumns="0" deleteRows="0"/>
   <phoneticPr fontId="1"/>
-  <dataValidations xWindow="1609" yWindow="1016" count="19">
+  <dataValidations xWindow="1609" yWindow="1016" count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F251:F1048576" xr:uid="{ABDE8FF0-D403-4B8B-8518-693E7B67958D}">
       <formula1>"男,女"</formula1>
     </dataValidation>
@@ -24128,7 +24130,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O404" xr:uid="{5629255E-6FE0-42E7-81E2-661D5393FDD7}">
       <formula1>INDIRECT($J2)</formula1>
     </dataValidation>
-    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="yyyy/mm/dd のフォーマットで記入してください。_x000a_例) 1955/10/05 _x000a_     2003/04/01" sqref="I126:I220 G17:G220 G2:G15" xr:uid="{24487AA6-F725-4D19-968C-462DA8BE7C82}"/>
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="yyyy/mm/dd のフォーマットで記入してください。_x000a_例) 1955/10/05 _x000a_     2003/04/01" sqref="I126:I220 G154:G220" xr:uid="{24487AA6-F725-4D19-968C-462DA8BE7C82}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I99" xr:uid="{EC9AF56D-1CED-4B3D-9DDE-BCFF809B9D86}">
       <formula1>INDIRECT($H2)</formula1>
     </dataValidation>
@@ -24138,7 +24140,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必ずプルダウンメニューから選んでください。" sqref="K2:K379 M2:M124" xr:uid="{CBEA4438-352A-4B84-93FD-AD039844A1AD}">
       <formula1>個人種目</formula1>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は8文字までです。" sqref="C214:C1048576 E178:E1048576 C1:E1 D202:D1048576" xr:uid="{FF33A719-5F98-4B6A-909D-D87FB4B06CA4}">
+    <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は8文字までです。" sqref="C214:C1048576 D202:D1048576 C1:E1 E294:E1048576" xr:uid="{FF33A719-5F98-4B6A-909D-D87FB4B06CA4}">
       <formula1>0</formula1>
       <formula2>8</formula2>
     </dataValidation>
@@ -24148,23 +24150,20 @@
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は8文字までです。" sqref="C143:C213" xr:uid="{87613B3E-E189-4897-9834-27A2E9725042}">
       <formula1>LENB($C143)&lt;=18</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は8文字までです。" sqref="E3:E177" xr:uid="{B5DC5963-451E-43E1-AA11-AB76BD72AA8F}">
-      <formula1>LENB(E3)&lt;=15</formula1>
-    </dataValidation>
     <dataValidation type="custom" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は8文字までです。" prompt="文字数は16バイトまでです。全角なら8文字です。半角で16文字までは可能ですが、漢字とひらがなには半角はありません。" sqref="B167:B191" xr:uid="{BFAEB236-0F4F-42FF-A64F-096AA98DC7AA}">
       <formula1>LENB($B167)&lt;=16</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="半角カタカナで15文字までです。" prompt="半角カタカナで15文字までです。_x000a_" sqref="E2" xr:uid="{C05BBFCE-C04C-468A-AF17-AE93B771209F}">
-      <formula1>LENB(E2)&lt;=15</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="半角カタカナで15文字までです。" prompt="半角カタカナで15文字までです。_x000a_" sqref="E206:E293" xr:uid="{C05BBFCE-C04C-468A-AF17-AE93B771209F}">
+      <formula1>AND(LENB(E206)&lt;=15,LENB(E206)=LEN(E206))</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は8文字までです。半角なら16文字まで。" prompt="文字数は16バイトまでです。全角なら8文字です。半角なら16文字まで。" sqref="D2:D201" xr:uid="{89F2D70E-B35B-4B9A-A6AA-B5D35110CA1B}">
+    <dataValidation type="custom" imeMode="hiragana" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は8文字までです。半角なら16文字まで。" prompt="文字数は16バイトまでです。全角なら8文字です。半角なら16文字まで。" sqref="D2:D201" xr:uid="{89F2D70E-B35B-4B9A-A6AA-B5D35110CA1B}">
       <formula1>LENB($D2)&lt;=16</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は16バイトまで。全角なら8文字。" prompt="文字数は16バイトまでです。全角なら8文字です。半角で16文字までは可能ですが、漢字とひらがなには半角はありません。" sqref="B2:B166" xr:uid="{D1FF7A1B-5AC1-4E99-AF36-E24C106A7119}">
-      <formula1>LENB($B2)&lt;=16</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は16バイトまで。全角なら8文字。" prompt="文字数は16バイトまでです。全角なら8文字です。半角で16文字までは可能ですが、漢字とひらがなには半角はありません。" sqref="B127:B166" xr:uid="{D1FF7A1B-5AC1-4E99-AF36-E24C106A7119}">
+      <formula1>LENB($B127)&lt;=16</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="半角カタカナで16文字までです。" prompt="半角カタカナで16文字までです。" sqref="C2:C142" xr:uid="{C79EB18C-B230-4225-974A-F1F63E3349FD}">
-      <formula1>LENB($C2)&lt;=16</formula1>
+    <dataValidation type="custom" imeMode="halfKatakana" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="半角カタカナで16文字までです。" prompt="半角カタカナで16文字までです。" sqref="C2:C142" xr:uid="{C79EB18C-B230-4225-974A-F1F63E3349FD}">
+      <formula1>AND(LENB(C2)&lt;=16,LEN(C2)=LENB(C2))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="入力が無効です。_x000a_プルダウンメニューから選んでください。" prompt="プルダウンメニューから選んでください。" sqref="F2:F250" xr:uid="{DFB6D42B-2CD9-4F3D-8C47-12D8752B7D25}">
       <formula1>"男,女"</formula1>
@@ -24172,6 +24171,16 @@
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="入力が無効です。" prompt="分、秒、を表す、&quot;:&quot; &quot; .&quot; などは入力せず数字だけで入力してください。_x000a_1/100秒まで記入する事!!_x000a_例)_x000a_1:23.45 ➡ 12345_x000a_   28.93 ➡   2893_x000a_&quot;:&quot; &quot; .&quot; 　は自動で入ります。" sqref="L2:L138 N2:N118" xr:uid="{8465CB46-2760-4D23-8E66-45AB86B46F3F}">
       <formula1>100</formula1>
       <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="custom" imeMode="halfKatakana" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="半角カタカナで15文字までです。" prompt="半角カタカナで15文字までです。_x000a_" sqref="E2:E205" xr:uid="{C647448F-5DE7-4BB0-B026-C3902C7A4DF9}">
+      <formula1>AND(LENB(E2)&lt;=15,LENB(E2)=LEN(E2))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" imeMode="hiragana" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は16バイトまで。全角なら8文字。" prompt="文字数は16バイトまでです。全角なら8文字です。半角で16文字までは可能ですが、漢字とひらがなには半角はありません。" sqref="B2:B126" xr:uid="{5CECFF1D-49BD-46B7-8770-2418E9E62ADC}">
+      <formula1>LENB($B2)&lt;=16</formula1>
+    </dataValidation>
+    <dataValidation type="date" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="日付の指定が不正です。" prompt="yyyy/mm/dd のフォーマットで記入してください。_x000a_例) 1955/10/05 _x000a_     2003/04/01" sqref="G2:G153" xr:uid="{444014DE-4B2F-44C7-8A6E-703DF74AB0BB}">
+      <formula1>7306</formula1>
+      <formula2>56979</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.94488188976377963" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -46019,8 +46028,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I1088"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.7"/>
@@ -50668,17 +50677,24 @@
       <c r="I1088" s="47"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" deleteRows="0"/>
+  <sheetProtection sheet="1" formatColumns="0" deleteRows="0"/>
   <phoneticPr fontId="1"/>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 I101:I1048576 I1" xr:uid="{BFF472FF-6271-4ABB-A001-978AB8B10F5B}"/>
-    <dataValidation imeMode="hiragana" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D31 B1:B441" xr:uid="{B84921E3-4CA7-4042-B269-8AD6E244F3DD}"/>
-    <dataValidation imeMode="halfKatakana" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C722 E2:E31" xr:uid="{45E54F28-F5B4-4C22-A7CE-778FD1C88EC0}"/>
+    <dataValidation type="custom" imeMode="hiragana" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="全角8文字までです。半角なら16文字まで。" prompt="全角で15文字までです。半角なら30文字。" sqref="D2:D31 B1:B441" xr:uid="{B84921E3-4CA7-4042-B269-8AD6E244F3DD}">
+      <formula1>LENB(B1)&lt;=16</formula1>
+    </dataValidation>
+    <dataValidation type="custom" imeMode="halfKatakana" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E31 C1 C213:C722" xr:uid="{45E54F28-F5B4-4C22-A7CE-778FD1C88EC0}">
+      <formula1>AND(LEN(C1)&lt;=15,LEN(C1)=LENB(C1))</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F52" xr:uid="{F1106BA4-4EFB-4A75-A611-820C02E3C176}">
       <formula1>"男,女"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="レースで出せるタイムを入力してください_x000a_分、秒、を表す、&quot;:&quot; &quot; .&quot; などは入力せず数字だけで入力してください。_x000a_例)_x000a_1:23.45 ➡ 12345_x000a_   28.93 ➡   2893_x000a_&quot;:&quot; &quot; .&quot; 　は自動で入ります。" sqref="I32:I100" xr:uid="{C9E450D6-14FB-4734-8D2F-7A0557C21A69}"/>
     <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="レースで出せるタイムを入力してください_x000a_分、秒、を表す、&quot;:&quot; &quot; .&quot; などは入力せず数字だけで入力してください。_x000a_例)_x000a_1:23.45 ➡ 12345_x000a_   28.93 ➡   2893_x000a_&quot;:&quot; &quot; .&quot; 　は自動で入ります。" sqref="I2:I31" xr:uid="{FBCCC0B8-9093-4A4C-80BF-23C7DF8490F0}"/>
+    <dataValidation type="custom" imeMode="halfKatakana" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="半角ｶﾀｶﾅで15文字までです。" prompt="半角で15文字までです。" sqref="C2:C212" xr:uid="{ACE393E5-914E-408A-A5B2-7BF7F94ABBB7}">
+      <formula1>AND(LEN(C2)&lt;=15,LEN(C2)=LENB(C2))</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -55267,7 +55283,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
